--- a/DSA210_DATA.xlsx
+++ b/DSA210_DATA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -886,7 +886,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1461,7 +1461,7 @@
         <v>14.3</v>
       </c>
       <c r="C20" s="2">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D20" s="2">
         <v>26.1</v>
@@ -1490,7 +1490,7 @@
         <v>13.8</v>
       </c>
       <c r="C21" s="2">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="D21" s="2">
         <v>24.9</v>
@@ -1519,7 +1519,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="2">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="D22" s="2">
         <v>23.5</v>
@@ -1751,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="C30" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D30" s="2">
         <v>25.6</v>
@@ -1867,7 +1867,7 @@
         <v>14.5</v>
       </c>
       <c r="C34" s="2">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="D34" s="2">
         <v>26.5</v>
@@ -1908,7 +1908,7 @@
         <v>69</v>
       </c>
       <c r="G35" s="2">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="H35" s="2">
         <v>6.1</v>
@@ -2070,7 +2070,7 @@
         <v>12.1</v>
       </c>
       <c r="C41" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="D41" s="2">
         <v>20.5</v>
@@ -2099,7 +2099,7 @@
         <v>11.3</v>
       </c>
       <c r="C42" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D42" s="2">
         <v>23.6</v>
@@ -2110,14 +2110,14 @@
       <c r="F42" s="2">
         <v>77</v>
       </c>
-      <c r="G42" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="H42" s="2">
-        <v>6.28</v>
-      </c>
-      <c r="I42" s="2">
-        <v>152</v>
+      <c r="G42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2157,7 +2157,7 @@
         <v>132</v>
       </c>
       <c r="C44" s="2">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D44" s="2">
         <v>27.4</v>
@@ -2186,7 +2186,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="C45" s="2">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="D45" s="2">
         <v>26.8</v>
@@ -2211,7 +2211,9 @@
       <c r="A46" s="1">
         <v>45770</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="2">
+        <v>11</v>
+      </c>
       <c r="C46" s="2">
         <v>79</v>
       </c>
@@ -2263,5 +2265,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DSA210_DATA.xlsx
+++ b/DSA210_DATA.xlsx
@@ -886,7 +886,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1403,7 +1403,7 @@
         <v>12.7</v>
       </c>
       <c r="C18" s="2">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2">
         <v>23.7</v>
@@ -1548,7 +1548,7 @@
         <v>13.1</v>
       </c>
       <c r="C23" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="D23" s="2">
         <v>21.3</v>
@@ -1577,7 +1577,7 @@
         <v>12.4</v>
       </c>
       <c r="C24" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D24" s="2">
         <v>22.9</v>
@@ -1606,7 +1606,7 @@
         <v>11.9</v>
       </c>
       <c r="C25" s="2">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="D25" s="2">
         <v>20.7</v>
@@ -1635,7 +1635,7 @@
         <v>11.5</v>
       </c>
       <c r="C26" s="2">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D26" s="2">
         <v>19.399999999999999</v>
@@ -1664,7 +1664,7 @@
         <v>10.6</v>
       </c>
       <c r="C27" s="2">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D27" s="2">
         <v>22.1</v>
@@ -1693,7 +1693,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="C28" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2">
         <v>26.3</v>
@@ -2237,31 +2237,15 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>45771</v>
-      </c>
+      <c r="A47" s="1"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="2">
-        <v>71.8</v>
-      </c>
-      <c r="D47" s="2">
-        <v>11.9</v>
-      </c>
-      <c r="E47" s="2">
-        <v>39</v>
-      </c>
-      <c r="F47" s="2">
-        <v>67</v>
-      </c>
-      <c r="G47" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="H47" s="2">
-        <v>6.03</v>
-      </c>
-      <c r="I47" s="2">
-        <v>154</v>
-      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DSA210_DATA.xlsx
+++ b/DSA210_DATA.xlsx
@@ -886,7 +886,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1029,7 +1029,7 @@
         <v>105</v>
       </c>
       <c r="D5" s="2">
-        <v>19.7</v>
+        <v>35.6</v>
       </c>
       <c r="E5" s="2">
         <v>38.299999999999997</v>
@@ -1145,7 +1145,7 @@
         <v>90</v>
       </c>
       <c r="D9" s="2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2">
         <v>34.9</v>
@@ -1261,7 +1261,7 @@
         <v>102</v>
       </c>
       <c r="D13" s="2">
-        <v>28.4</v>
+        <v>36.5</v>
       </c>
       <c r="E13" s="2">
         <v>37.799999999999997</v>
@@ -1464,7 +1464,7 @@
         <v>107</v>
       </c>
       <c r="D20" s="2">
-        <v>26.1</v>
+        <v>35.1</v>
       </c>
       <c r="E20" s="2">
         <v>36.1</v>
@@ -1609,7 +1609,7 @@
         <v>120</v>
       </c>
       <c r="D25" s="2">
-        <v>20.7</v>
+        <v>29.3</v>
       </c>
       <c r="E25" s="2">
         <v>29.5</v>
@@ -1667,7 +1667,7 @@
         <v>50</v>
       </c>
       <c r="D27" s="2">
-        <v>22.1</v>
+        <v>12</v>
       </c>
       <c r="E27" s="2">
         <v>30.8</v>
@@ -1870,7 +1870,7 @@
         <v>159</v>
       </c>
       <c r="D34" s="2">
-        <v>26.5</v>
+        <v>36.4</v>
       </c>
       <c r="E34" s="2">
         <v>34.9</v>
@@ -2044,7 +2044,7 @@
         <v>57</v>
       </c>
       <c r="D40" s="2">
-        <v>20.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E40" s="2">
         <v>28</v>
@@ -2073,7 +2073,7 @@
         <v>103</v>
       </c>
       <c r="D41" s="2">
-        <v>20.5</v>
+        <v>25.6</v>
       </c>
       <c r="E41" s="2">
         <v>27.7</v>
@@ -2102,7 +2102,7 @@
         <v>100</v>
       </c>
       <c r="D42" s="2">
-        <v>23.6</v>
+        <v>29.8</v>
       </c>
       <c r="E42" s="2">
         <v>31.5</v>
@@ -2160,7 +2160,7 @@
         <v>129</v>
       </c>
       <c r="D44" s="2">
-        <v>27.4</v>
+        <v>37</v>
       </c>
       <c r="E44" s="2">
         <v>35.700000000000003</v>
@@ -2189,7 +2189,7 @@
         <v>167</v>
       </c>
       <c r="D45" s="2">
-        <v>26.8</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E45" s="2">
         <v>34.9</v>

--- a/DSA210_DATA.xlsx
+++ b/DSA210_DATA.xlsx
@@ -886,7 +886,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1606,7 +1606,7 @@
         <v>11.9</v>
       </c>
       <c r="C25" s="2">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D25" s="2">
         <v>29.3</v>
@@ -1896,7 +1896,7 @@
         <v>15</v>
       </c>
       <c r="C35" s="2">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="D35" s="2">
         <v>27.9</v>

--- a/DSA210_DATA.xlsx
+++ b/DSA210_DATA.xlsx
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1278,7 +1278,7 @@
         <v>6.3</v>
       </c>
       <c r="I13" s="1">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1539,7 +1539,7 @@
         <v>6.5</v>
       </c>
       <c r="I22" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1858,7 +1858,7 @@
         <v>5.3</v>
       </c>
       <c r="I33" s="1">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1974,7 +1974,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="I37" s="1">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -2090,7 +2090,7 @@
         <v>5.9</v>
       </c>
       <c r="I41" s="1">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -2206,7 +2206,7 @@
         <v>6.2</v>
       </c>
       <c r="I45" s="1">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -2235,7 +2235,7 @@
         <v>5.3</v>
       </c>
       <c r="I46" s="1">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
